--- a/Data_Analysis.xlsx
+++ b/Data_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/qandrew1_student_ubc_ca/Documents/COSC 521 Code/Course Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/qandrew1_student_ubc_ca/Documents/COSC 521 Code/Course Project - Submission Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{8387F7B7-9FC7-475F-B4D3-8059B28F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70B1FEA-E289-4D93-873A-D478965EE6C0}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{8387F7B7-9FC7-475F-B4D3-8059B28F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6478A597-B55F-4DD0-8666-7AB4B30EB561}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2,2,OPO" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>1</t>
   </si>
@@ -8570,10 +8570,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7CA41-3E69-428E-9873-6F91A83BE02F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8595,6 +8595,14 @@
       </c>
       <c r="B2">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -9383,7 +9391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE27441-4C3C-495B-B3AA-DB8DFBA19457}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J26"/>
     </sheetView>
   </sheetViews>
@@ -9409,11 +9417,11 @@
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">IFERROR(INDEX(B2:G2, RANDBETWEEN(1, COUNTA(B2:G2))), "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <f ca="1">IF(I2=A2, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -9440,11 +9448,11 @@
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">IFERROR(INDEX(B3:G3, RANDBETWEEN(1, COUNTA(B3:G3))), "")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J26" ca="1" si="0">IF(I3=A3, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -9462,11 +9470,11 @@
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">IFERROR(INDEX(B4:G4, RANDBETWEEN(1, COUNTA(B4:G4))), "")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -9490,7 +9498,7 @@
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">IFERROR(INDEX(B5:G5, RANDBETWEEN(1, COUNTA(B5:G5))), "")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -9518,11 +9526,11 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">IFERROR(INDEX(B6:G6, RANDBETWEEN(1, COUNTA(B6:G6))), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -9537,11 +9545,11 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">IFERROR(INDEX(B7:G7, RANDBETWEEN(1, COUNTA(B7:G7))), "")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -9562,11 +9570,11 @@
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">IFERROR(INDEX(B8:G8, RANDBETWEEN(1, COUNTA(B8:G8))), "")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -9606,11 +9614,11 @@
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">IFERROR(INDEX(B10:G10, RANDBETWEEN(1, COUNTA(B10:G10))), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -9650,11 +9658,11 @@
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">IFERROR(INDEX(B12:G12, RANDBETWEEN(1, COUNTA(B12:G12))), "")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -9678,7 +9686,7 @@
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">IFERROR(INDEX(B13:G13, RANDBETWEEN(1, COUNTA(B13:G13))), "")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -9728,7 +9736,7 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">IFERROR(INDEX(B15:G15, RANDBETWEEN(1, COUNTA(B15:G15))), "")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
@@ -9753,11 +9761,11 @@
       </c>
       <c r="I16" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">IFERROR(INDEX(B16:G16, RANDBETWEEN(1, COUNTA(B16:G16))), "")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -9781,7 +9789,7 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(INDEX(B17:G17, RANDBETWEEN(1, COUNTA(B17:G17))), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
@@ -9803,7 +9811,7 @@
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">IFERROR(INDEX(B18:G18, RANDBETWEEN(1, COUNTA(B18:G18))), "")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
@@ -9828,11 +9836,11 @@
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">IFERROR(INDEX(B19:G19, RANDBETWEEN(1, COUNTA(B19:G19))), "")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -9850,11 +9858,11 @@
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">IFERROR(INDEX(B20:G20, RANDBETWEEN(1, COUNTA(B20:G20))), "")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -9926,11 +9934,11 @@
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">IFERROR(INDEX(B24:G24, RANDBETWEEN(1, COUNTA(B24:G24))), "")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -9948,11 +9956,11 @@
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">IFERROR(INDEX(B25:G25, RANDBETWEEN(1, COUNTA(B25:G25))), "")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -9980,7 +9988,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J27">
         <f ca="1">COUNTIF(J2:J26, 1) / COUNTA(J2:J26)</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Analysis.xlsx
+++ b/Data_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/qandrew1_student_ubc_ca/Documents/COSC 521 Code/Course Project - Submission Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/qandrew1_student_ubc_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{8387F7B7-9FC7-475F-B4D3-8059B28F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6478A597-B55F-4DD0-8666-7AB4B30EB561}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{8387F7B7-9FC7-475F-B4D3-8059B28F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93E60BE-46E9-48A3-8D0C-5099A185F95C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3816" yWindow="120" windowWidth="14316" windowHeight="11760" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2,2,OPO" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>1</t>
   </si>
@@ -181,19 +181,7 @@
     <t>Filter Out</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>Which one is the best</t>
-  </si>
-  <si>
-    <t>Best Actual Path</t>
-  </si>
-  <si>
-    <t>Best path according to my algorithm</t>
-  </si>
-  <si>
-    <t>Comparison</t>
   </si>
   <si>
     <t>Percentage Accuracy when using the closest closest edge</t>
@@ -216,6 +204,33 @@
   <si>
     <t>Random</t>
   </si>
+  <si>
+    <t>Best path according to method 1</t>
+  </si>
+  <si>
+    <t>Best Actual Path through relay</t>
+  </si>
+  <si>
+    <t>Path available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ith path picked accurately </t>
+  </si>
+  <si>
+    <t>Random pick algorithm</t>
+  </si>
+  <si>
+    <t>1 if method 1 pick similar to the optimal path, 0 if not</t>
+  </si>
+  <si>
+    <t>1 if method 2 pick similar to the optimal path, 0 if not</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>1 if random pick similar to the optimal path, 0 if not</t>
+  </si>
 </sst>
 </file>
 
@@ -230,12 +245,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,6 +279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,10 +1692,10 @@
         <v>27</v>
       </c>
       <c r="W1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AC1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -6735,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68FC0A-6055-490A-ADCF-8DE9ACD83B1A}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6749,28 +6774,31 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -6809,7 +6837,7 @@
         <f t="array" ref="P2">IF(MIN(IF(I2:N2&gt;0, I2:N2))&gt;0, MATCH(MIN(IF(I2:N2&gt;0, I2:N2)), I2:N2, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <f>IF(VALUE(H2)=VALUE(P2), 1, 0)</f>
         <v>0</v>
       </c>
@@ -6835,7 +6863,7 @@
         <f t="array" ref="Y2">IF(MIN(IF(S2:X2&gt;0, S2:X2))&gt;0, MATCH(MIN(IF(S2:X2&gt;0, S2:X2)), S2:X2, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <f>IF(VALUE(H2)=VALUE(Y2), 1, 0)</f>
         <v>0</v>
       </c>
@@ -6888,7 +6916,7 @@
         <f t="array" ref="P3">IF(MIN(IF(I3:N3&gt;0, I3:N3))&gt;0, MATCH(MIN(IF(I3:N3&gt;0, I3:N3)), I3:N3, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q26" si="0">IF(VALUE(H3)=VALUE(P3), 1, 0)</f>
         <v>0</v>
       </c>
@@ -6914,7 +6942,7 @@
         <f t="array" ref="Y3">IF(MIN(IF(S3:X3&gt;0, S3:X3))&gt;0, MATCH(MIN(IF(S3:X3&gt;0, S3:X3)), S3:X3, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z26" si="1">IF(VALUE(H3)=VALUE(Y3), 1, 0)</f>
         <v>0</v>
       </c>
@@ -6958,7 +6986,7 @@
         <f t="array" ref="P4">IF(MIN(IF(I4:N4&gt;0, I4:N4))&gt;0, MATCH(MIN(IF(I4:N4&gt;0, I4:N4)), I4:N4, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6984,7 +7012,7 @@
         <f t="array" ref="Y4">IF(MIN(IF(S4:X4&gt;0, S4:X4))&gt;0, MATCH(MIN(IF(S4:X4&gt;0, S4:X4)), S4:X4, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7034,7 +7062,7 @@
         <f t="array" ref="P5">IF(MIN(IF(I5:N5&gt;0, I5:N5))&gt;0, MATCH(MIN(IF(I5:N5&gt;0, I5:N5)), I5:N5, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7060,7 +7088,7 @@
         <f t="array" ref="Y5">IF(MIN(IF(S5:X5&gt;0, S5:X5))&gt;0, MATCH(MIN(IF(S5:X5&gt;0, S5:X5)), S5:X5, 0), "")</f>
         <v>4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7110,7 +7138,7 @@
         <f t="array" ref="P6">IF(MIN(IF(I6:N6&gt;0, I6:N6))&gt;0, MATCH(MIN(IF(I6:N6&gt;0, I6:N6)), I6:N6, 0), "")</f>
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7136,7 +7164,7 @@
         <f t="array" ref="Y6">IF(MIN(IF(S6:X6&gt;0, S6:X6))&gt;0, MATCH(MIN(IF(S6:X6&gt;0, S6:X6)), S6:X6, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7177,7 +7205,7 @@
         <f t="array" ref="P7">IF(MIN(IF(I7:N7&gt;0, I7:N7))&gt;0, MATCH(MIN(IF(I7:N7&gt;0, I7:N7)), I7:N7, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7203,7 +7231,7 @@
         <f t="array" ref="Y7">IF(MIN(IF(S7:X7&gt;0, S7:X7))&gt;0, MATCH(MIN(IF(S7:X7&gt;0, S7:X7)), S7:X7, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7250,7 +7278,7 @@
         <f t="array" ref="P8">IF(MIN(IF(I8:N8&gt;0, I8:N8))&gt;0, MATCH(MIN(IF(I8:N8&gt;0, I8:N8)), I8:N8, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7276,7 +7304,7 @@
         <f t="array" ref="Y8">IF(MIN(IF(S8:X8&gt;0, S8:X8))&gt;0, MATCH(MIN(IF(S8:X8&gt;0, S8:X8)), S8:X8, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7320,7 +7348,7 @@
         <f t="array" ref="P9">IF(MIN(IF(I9:N9&gt;0, I9:N9))&gt;0, MATCH(MIN(IF(I9:N9&gt;0, I9:N9)), I9:N9, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7346,7 +7374,7 @@
         <f t="array" ref="Y9">IF(MIN(IF(S9:X9&gt;0, S9:X9))&gt;0, MATCH(MIN(IF(S9:X9&gt;0, S9:X9)), S9:X9, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7390,7 +7418,7 @@
         <f t="array" ref="P10">IF(MIN(IF(I10:N10&gt;0, I10:N10))&gt;0, MATCH(MIN(IF(I10:N10&gt;0, I10:N10)), I10:N10, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7416,7 +7444,7 @@
         <f t="array" ref="Y10">IF(MIN(IF(S10:X10&gt;0, S10:X10))&gt;0, MATCH(MIN(IF(S10:X10&gt;0, S10:X10)), S10:X10, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7460,7 +7488,7 @@
         <f t="array" ref="P11">IF(MIN(IF(I11:N11&gt;0, I11:N11))&gt;0, MATCH(MIN(IF(I11:N11&gt;0, I11:N11)), I11:N11, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7486,7 +7514,7 @@
         <f t="array" ref="Y11">IF(MIN(IF(S11:X11&gt;0, S11:X11))&gt;0, MATCH(MIN(IF(S11:X11&gt;0, S11:X11)), S11:X11, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7530,7 +7558,7 @@
         <f t="array" ref="P12">IF(MIN(IF(I12:N12&gt;0, I12:N12))&gt;0, MATCH(MIN(IF(I12:N12&gt;0, I12:N12)), I12:N12, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7556,7 +7584,7 @@
         <f t="array" ref="Y12">IF(MIN(IF(S12:X12&gt;0, S12:X12))&gt;0, MATCH(MIN(IF(S12:X12&gt;0, S12:X12)), S12:X12, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7606,7 +7634,7 @@
         <f t="array" ref="P13">IF(MIN(IF(I13:N13&gt;0, I13:N13))&gt;0, MATCH(MIN(IF(I13:N13&gt;0, I13:N13)), I13:N13, 0), "")</f>
         <v>4</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7632,7 +7660,7 @@
         <f t="array" ref="Y13">IF(MIN(IF(S13:X13&gt;0, S13:X13))&gt;0, MATCH(MIN(IF(S13:X13&gt;0, S13:X13)), S13:X13, 0), "")</f>
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7676,7 +7704,7 @@
         <f t="array" ref="P14">IF(MIN(IF(I14:N14&gt;0, I14:N14))&gt;0, MATCH(MIN(IF(I14:N14&gt;0, I14:N14)), I14:N14, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7702,7 +7730,7 @@
         <f t="array" ref="Y14">IF(MIN(IF(S14:X14&gt;0, S14:X14))&gt;0, MATCH(MIN(IF(S14:X14&gt;0, S14:X14)), S14:X14, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7752,7 +7780,7 @@
         <f t="array" ref="P15">IF(MIN(IF(I15:N15&gt;0, I15:N15))&gt;0, MATCH(MIN(IF(I15:N15&gt;0, I15:N15)), I15:N15, 0), "")</f>
         <v>5</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7778,7 +7806,7 @@
         <f t="array" ref="Y15">IF(MIN(IF(S15:X15&gt;0, S15:X15))&gt;0, MATCH(MIN(IF(S15:X15&gt;0, S15:X15)), S15:X15, 0), "")</f>
         <v>5</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7825,7 +7853,7 @@
         <f t="array" ref="P16">IF(MIN(IF(I16:N16&gt;0, I16:N16))&gt;0, MATCH(MIN(IF(I16:N16&gt;0, I16:N16)), I16:N16, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7851,7 +7879,7 @@
         <f t="array" ref="Y16">IF(MIN(IF(S16:X16&gt;0, S16:X16))&gt;0, MATCH(MIN(IF(S16:X16&gt;0, S16:X16)), S16:X16, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7901,7 +7929,7 @@
         <f t="array" ref="P17">IF(MIN(IF(I17:N17&gt;0, I17:N17))&gt;0, MATCH(MIN(IF(I17:N17&gt;0, I17:N17)), I17:N17, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7927,7 +7955,7 @@
         <f t="array" ref="Y17">IF(MIN(IF(S17:X17&gt;0, S17:X17))&gt;0, MATCH(MIN(IF(S17:X17&gt;0, S17:X17)), S17:X17, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7971,7 +7999,7 @@
         <f t="array" ref="P18">IF(MIN(IF(I18:N18&gt;0, I18:N18))&gt;0, MATCH(MIN(IF(I18:N18&gt;0, I18:N18)), I18:N18, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7997,7 +8025,7 @@
         <f t="array" ref="Y18">IF(MIN(IF(S18:X18&gt;0, S18:X18))&gt;0, MATCH(MIN(IF(S18:X18&gt;0, S18:X18)), S18:X18, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8044,7 +8072,7 @@
         <f t="array" ref="P19">IF(MIN(IF(I19:N19&gt;0, I19:N19))&gt;0, MATCH(MIN(IF(I19:N19&gt;0, I19:N19)), I19:N19, 0), "")</f>
         <v>4</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8070,7 +8098,7 @@
         <f t="array" ref="Y19">IF(MIN(IF(S19:X19&gt;0, S19:X19))&gt;0, MATCH(MIN(IF(S19:X19&gt;0, S19:X19)), S19:X19, 0), "")</f>
         <v>4</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8114,7 +8142,7 @@
         <f t="array" ref="P20">IF(MIN(IF(I20:N20&gt;0, I20:N20))&gt;0, MATCH(MIN(IF(I20:N20&gt;0, I20:N20)), I20:N20, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8140,7 +8168,7 @@
         <f t="array" ref="Y20">IF(MIN(IF(S20:X20&gt;0, S20:X20))&gt;0, MATCH(MIN(IF(S20:X20&gt;0, S20:X20)), S20:X20, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8178,7 +8206,7 @@
         <f t="array" ref="P21">IF(MIN(IF(I21:N21&gt;0, I21:N21))&gt;0, MATCH(MIN(IF(I21:N21&gt;0, I21:N21)), I21:N21, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8204,7 +8232,7 @@
         <f t="array" ref="Y21">IF(MIN(IF(S21:X21&gt;0, S21:X21))&gt;0, MATCH(MIN(IF(S21:X21&gt;0, S21:X21)), S21:X21, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8248,7 +8276,7 @@
         <f t="array" ref="P22">IF(MIN(IF(I22:N22&gt;0, I22:N22))&gt;0, MATCH(MIN(IF(I22:N22&gt;0, I22:N22)), I22:N22, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8274,7 +8302,7 @@
         <f t="array" ref="Y22">IF(MIN(IF(S22:X22&gt;0, S22:X22))&gt;0, MATCH(MIN(IF(S22:X22&gt;0, S22:X22)), S22:X22, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8312,7 +8340,7 @@
         <f t="array" ref="P23">IF(MIN(IF(I23:N23&gt;0, I23:N23))&gt;0, MATCH(MIN(IF(I23:N23&gt;0, I23:N23)), I23:N23, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8338,7 +8366,7 @@
         <f t="array" ref="Y23">IF(MIN(IF(S23:X23&gt;0, S23:X23))&gt;0, MATCH(MIN(IF(S23:X23&gt;0, S23:X23)), S23:X23, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8382,7 +8410,7 @@
         <f t="array" ref="P24">IF(MIN(IF(I24:N24&gt;0, I24:N24))&gt;0, MATCH(MIN(IF(I24:N24&gt;0, I24:N24)), I24:N24, 0), "")</f>
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8408,7 +8436,7 @@
         <f t="array" ref="Y24">IF(MIN(IF(S24:X24&gt;0, S24:X24))&gt;0, MATCH(MIN(IF(S24:X24&gt;0, S24:X24)), S24:X24, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8452,7 +8480,7 @@
         <f t="array" ref="P25">IF(MIN(IF(I25:N25&gt;0, I25:N25))&gt;0, MATCH(MIN(IF(I25:N25&gt;0, I25:N25)), I25:N25, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8478,7 +8506,7 @@
         <f t="array" ref="Y25">IF(MIN(IF(S25:X25&gt;0, S25:X25))&gt;0, MATCH(MIN(IF(S25:X25&gt;0, S25:X25)), S25:X25, 0), "")</f>
         <v>1</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8522,7 +8550,7 @@
         <f t="array" ref="P26">IF(MIN(IF(I26:N26&gt;0, I26:N26))&gt;0, MATCH(MIN(IF(I26:N26&gt;0, I26:N26)), I26:N26, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8548,15 +8576,21 @@
         <f t="array" ref="Y26">IF(MIN(IF(S26:X26&gt;0, S26:X26))&gt;0, MATCH(MIN(IF(S26:X26&gt;0, S26:X26)), S26:X26, 0), "")</f>
         <v>3</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="Q27">
         <f>SUM(Q2:Q26)/COUNTA(Q2:Q26)</f>
         <v>0.36</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>52</v>
       </c>
       <c r="Z27">
         <f>SUM(Z2:Z26)/COUNTA(Z2:Z26)</f>
@@ -8583,7 +8617,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0.36</v>
@@ -8591,7 +8625,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -8599,7 +8633,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -8614,7 +8648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9391,18 +9425,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE27441-4C3C-495B-B3AA-DB8DFBA19457}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9417,11 +9454,11 @@
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">IFERROR(INDEX(B2:G2, RANDBETWEEN(1, COUNTA(B2:G2))), "")</f>
-        <v>6</v>
-      </c>
-      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
         <f ca="1">IF(I2=A2, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -9450,7 +9487,7 @@
         <f t="array" aca="1" ref="I3" ca="1">IFERROR(INDEX(B3:G3, RANDBETWEEN(1, COUNTA(B3:G3))), "")</f>
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J26" ca="1" si="0">IF(I3=A3, 1, 0)</f>
         <v>1</v>
       </c>
@@ -9470,11 +9507,11 @@
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">IFERROR(INDEX(B4:G4, RANDBETWEEN(1, COUNTA(B4:G4))), "")</f>
-        <v>6</v>
-      </c>
-      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -9498,9 +9535,9 @@
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">IFERROR(INDEX(B5:G5, RANDBETWEEN(1, COUNTA(B5:G5))), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9526,9 +9563,9 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">IFERROR(INDEX(B6:G6, RANDBETWEEN(1, COUNTA(B6:G6))), "")</f>
-        <v>3</v>
-      </c>
-      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9545,11 +9582,11 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">IFERROR(INDEX(B7:G7, RANDBETWEEN(1, COUNTA(B7:G7))), "")</f>
-        <v>6</v>
-      </c>
-      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -9570,11 +9607,11 @@
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">IFERROR(INDEX(B8:G8, RANDBETWEEN(1, COUNTA(B8:G8))), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -9592,11 +9629,11 @@
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">IFERROR(INDEX(B9:G9, RANDBETWEEN(1, COUNTA(B9:G9))), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -9616,7 +9653,7 @@
         <f t="array" aca="1" ref="I10" ca="1">IFERROR(INDEX(B10:G10, RANDBETWEEN(1, COUNTA(B10:G10))), "")</f>
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9636,11 +9673,11 @@
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">IFERROR(INDEX(B11:G11, RANDBETWEEN(1, COUNTA(B11:G11))), "")</f>
-        <v>5</v>
-      </c>
-      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -9658,11 +9695,11 @@
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">IFERROR(INDEX(B12:G12, RANDBETWEEN(1, COUNTA(B12:G12))), "")</f>
-        <v>6</v>
-      </c>
-      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -9686,9 +9723,9 @@
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">IFERROR(INDEX(B13:G13, RANDBETWEEN(1, COUNTA(B13:G13))), "")</f>
-        <v>7</v>
-      </c>
-      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9708,11 +9745,11 @@
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">IFERROR(INDEX(B14:G14, RANDBETWEEN(1, COUNTA(B14:G14))), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -9736,9 +9773,9 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">IFERROR(INDEX(B15:G15, RANDBETWEEN(1, COUNTA(B15:G15))), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9761,11 +9798,11 @@
       </c>
       <c r="I16" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">IFERROR(INDEX(B16:G16, RANDBETWEEN(1, COUNTA(B16:G16))), "")</f>
-        <v>7</v>
-      </c>
-      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -9789,9 +9826,9 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(INDEX(B17:G17, RANDBETWEEN(1, COUNTA(B17:G17))), "")</f>
-        <v>5</v>
-      </c>
-      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -9811,11 +9848,11 @@
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">IFERROR(INDEX(B18:G18, RANDBETWEEN(1, COUNTA(B18:G18))), "")</f>
-        <v>2</v>
-      </c>
-      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -9836,11 +9873,11 @@
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">IFERROR(INDEX(B19:G19, RANDBETWEEN(1, COUNTA(B19:G19))), "")</f>
-        <v>9</v>
-      </c>
-      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -9860,7 +9897,7 @@
         <f t="array" aca="1" ref="I20" ca="1">IFERROR(INDEX(B20:G20, RANDBETWEEN(1, COUNTA(B20:G20))), "")</f>
         <v>8</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -9876,7 +9913,7 @@
         <f t="array" aca="1" ref="I21" ca="1">IFERROR(INDEX(B21:G21, RANDBETWEEN(1, COUNTA(B21:G21))), "")</f>
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -9896,11 +9933,11 @@
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">IFERROR(INDEX(B22:G22, RANDBETWEEN(1, COUNTA(B22:G22))), "")</f>
-        <v>3</v>
-      </c>
-      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -9914,7 +9951,7 @@
         <f t="array" aca="1" ref="I23" ca="1">IFERROR(INDEX(B23:G23, RANDBETWEEN(1, COUNTA(B23:G23))), "")</f>
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -9936,7 +9973,7 @@
         <f t="array" aca="1" ref="I24" ca="1">IFERROR(INDEX(B24:G24, RANDBETWEEN(1, COUNTA(B24:G24))), "")</f>
         <v>3</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -9956,11 +9993,11 @@
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">IFERROR(INDEX(B25:G25, RANDBETWEEN(1, COUNTA(B25:G25))), "")</f>
-        <v>5</v>
-      </c>
-      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -9978,17 +10015,20 @@
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">IFERROR(INDEX(B26:G26, RANDBETWEEN(1, COUNTA(B26:G26))), "")</f>
-        <v>3</v>
-      </c>
-      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J27">
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="4">
         <f ca="1">COUNTIF(J2:J26, 1) / COUNTA(J2:J26)</f>
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
